--- a/vertexEnergies.xlsx
+++ b/vertexEnergies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Documents\GitHub\lattice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44861BD0-5119-4572-B9A3-EF6AC995B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6F3401-34A1-4A81-9DBF-9979D469D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0DA03CF6-7123-4B02-BD34-8EB2F45848B4}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A379FC-ED91-49F9-BC7E-3A415DD0C19D}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,356 +558,394 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="2">
+        <v>800</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1099999999999996E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1E-7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.616718953125E-18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.667318953125E-18</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.371753109375E-18</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.4009032031249999E-18</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.5573520781249999E-18</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.1434413593749999E-18</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.17117990625E-18</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3.2484886875000001E-18</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3.5255757343750003E-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>700</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>4.8400000000000005E-7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>1.92E-7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>1.449826E-18</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>1.5117140625E-18</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>2.1234301249999999E-18</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="3">
         <v>2.1635360937500001E-18</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>2.3483294687500001E-18</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>2.791993875E-18</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>2.8470931874999998E-18</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="3">
         <v>2.929829328125E-18</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <v>3.2544094765625001E-18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>800</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>4.9800000000000004E-7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>1.9299999999999999E-7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>1.4887674179687499E-18</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>1.5296611640624999E-18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>2.2011238359374999E-18</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>2.2308759843750001E-18</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <v>2.3527958749999998E-18</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="3">
         <v>2.905066546875E-18</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="3">
         <v>2.9526699218750001E-18</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="3">
         <v>3.0037715156250001E-18</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="3">
         <v>3.2134331093750001E-18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>600</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.39E-7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.4600000000000001E-7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0811767734374999E-18</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.13507240234375E-18</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.5855579570312501E-18</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.6228662890625E-18</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1.77989684375E-18</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2.0728919843750001E-18</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.1346237343749998E-18</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.1992398125000001E-18</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2.4671166640624999E-18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
       </c>
       <c r="C7" s="1">
+        <v>4.39E-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4600000000000001E-7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0811767734374999E-18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.13507240234375E-18</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.5855579570312501E-18</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.6228662890625E-18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.77989684375E-18</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.0728919843750001E-18</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.1346237343749998E-18</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2.1992398125000001E-18</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2.4671166640624999E-18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>600</v>
+      </c>
+      <c r="C8" s="1">
         <v>4.2E-7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>1.43E-7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>1.0757247109375E-18</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>1.1208444531249999E-18</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>1.58288612890625E-18</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>1.61528003125E-18</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <v>1.7471278828125E-18</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <v>2.0754121171875E-18</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="3">
         <v>2.1302099609375002E-18</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L8" s="3">
         <v>2.1838106562500001E-18</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="3">
         <v>2.4078054375E-18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>700</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.5499999999999998E-7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.6E-7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.218015078125E-18</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.25535859375E-18</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.7997403203125E-18</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.8267149453125002E-18</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1.9367804531250001E-18</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2.3717347421875001E-18</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2.4162673828125001E-18</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2.4617316796874998E-18</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2.6495956796875001E-18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
+        <v>700</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.5499999999999998E-7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6E-7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.218015078125E-18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.25535859375E-18</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.7997403203125E-18</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.8267149453125002E-18</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.9367804531250001E-18</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.3717347421875001E-18</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.4162673828125001E-18</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.4617316796874998E-18</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2.6495956796875001E-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>800</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>4.8400000000000005E-7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>1.7499999999999999E-7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>1.3429273671875E-18</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>1.3742582812500001E-18</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>1.9907545234375002E-18</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>2.0142320078125E-18</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>2.1071856015625001E-18</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>2.630536109375E-18</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>2.6698324062499999E-18</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>2.7078488359375002E-18</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>2.8664198359375001E-18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>600</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>4.82E-7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>1.8900000000000001E-7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>1.42156188671875E-18</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>1.5446747187499999E-18</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>1.9978767656250001E-18</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>2.0609287343749999E-18</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>2.4428695781250002E-18</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>2.6149667812499998E-18</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>2.6479654374999999E-18</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <v>2.831355265625E-18</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <v>3.40681278125E-18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>700</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.7700000000000005E-7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.86E-7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.4140373007812501E-18</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1.4698706757812501E-18</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2.0674889921875002E-18</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2.1004116249999999E-18</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2.270303953125E-18</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.7309212499999999E-18</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2.7669084687500001E-18</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2.84842853125E-18</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3.1482373984375001E-18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C12" s="1">
         <v>4.7700000000000005E-7</v>
       </c>
       <c r="D12" s="1">
+        <v>1.86E-7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.4140373007812501E-18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.4698706757812501E-18</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.0674889921875002E-18</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.1004116249999999E-18</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.270303953125E-18</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.7309212499999999E-18</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2.7669084687500001E-18</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.84842853125E-18</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3.1482373984375001E-18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>800</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.7700000000000005E-7</v>
+      </c>
+      <c r="D13" s="1">
         <v>1.79E-7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>1.38623013671875E-18</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>1.4174983320312499E-18</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>2.0472934531249998E-18</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>2.0667611875E-18</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>2.163411296875E-18</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <v>2.7165455625E-18</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>2.7390336093749999E-18</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L13" s="3">
         <v>2.7892775000000001E-18</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <v>2.9533716171875E-18</v>
       </c>
     </row>
